--- a/Status Management.xlsx
+++ b/Status Management.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="188">
   <si>
     <t>donor</t>
   </si>
@@ -592,6 +592,12 @@
   <si>
     <t>for same 1:1-&gt;Blood confirmed
 for different 1:1-&gt; Receiver cannot accept</t>
+  </si>
+  <si>
+    <t>diff case</t>
+  </si>
+  <si>
+    <t>WRONG. What if for diff 1:1</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -722,11 +728,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -753,15 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -794,20 +800,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1342,21 +1349,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="5"/>
@@ -1392,7 +1399,7 @@
       <c r="J2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1981,7 +1988,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,16 +2024,16 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2040,16 +2047,16 @@
       <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17">
-        <v>0</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2063,16 +2070,16 @@
       <c r="C4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="17">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2086,26 +2093,26 @@
       <c r="C5" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>2</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="17"/>
+      <c r="H5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>9</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>9</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -2266,1577 +2273,1577 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="B8" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="B9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="B12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="B13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="C18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17"/>
+      <c r="C19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="B21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="C22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="C23" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="B24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="B25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="D26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="C30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="C31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22" t="s">
+      <c r="B32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17"/>
+      <c r="B33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17" t="s">
+      <c r="C34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17" t="s">
+      <c r="C35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="B36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17"/>
+      <c r="B37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="20" t="s">
+      <c r="D38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="D39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="D40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="17"/>
+      <c r="D41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="C42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="17" t="s">
+      <c r="C43" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="17"/>
+      <c r="B45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="22" t="s">
+      <c r="C46" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="C47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" s="22" t="s">
+      <c r="B48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E49" s="22" t="s">
+      <c r="B49" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="A50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="24" t="s">
+      <c r="D50" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="A51" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="24" t="s">
+      <c r="D51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="A52" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="A53" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="24" t="s">
+      <c r="D53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="A54" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="19" t="s">
+      <c r="C54" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="17"/>
+      <c r="C55" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="17"/>
+      <c r="A56" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="17"/>
+      <c r="A57" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="A58" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="17"/>
+      <c r="C58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="A59" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="17"/>
+      <c r="C59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="17"/>
+      <c r="A60" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="17"/>
+      <c r="A61" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="A62" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" s="19"/>
+      <c r="D62" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="17"/>
+      <c r="D63" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="A64" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="17"/>
+      <c r="D64" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="A65" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="17"/>
+      <c r="D65" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B66" s="17" t="s">
+      <c r="A66" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="17"/>
+      <c r="C66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="17"/>
+      <c r="C67" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" s="17"/>
+      <c r="A68" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="17"/>
+      <c r="A69" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="17" t="s">
+      <c r="A70" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="22" t="s">
+      <c r="C70" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="17" t="s">
+      <c r="A71" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="17" t="s">
+      <c r="C71" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="22" t="s">
+      <c r="A72" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="22" t="s">
+      <c r="A73" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D74" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="24" t="s">
+      <c r="D74" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="A75" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="24" t="s">
+      <c r="D75" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="17" t="s">
+      <c r="A76" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="24" t="s">
+      <c r="D76" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="17" t="s">
+      <c r="A77" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="24" t="s">
+      <c r="D77" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="17" t="s">
+      <c r="A78" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="17"/>
+      <c r="C78" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="17" t="s">
+      <c r="A79" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="17"/>
+      <c r="C79" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="14"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="17"/>
+      <c r="A80" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="14"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="17"/>
+      <c r="A81" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="17" t="s">
+      <c r="A82" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="17"/>
+      <c r="C82" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="14"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="17" t="s">
+      <c r="A83" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="17"/>
+      <c r="C83" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="17"/>
+      <c r="A84" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="17"/>
+      <c r="A85" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="17" t="s">
+      <c r="A86" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D86" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" s="17"/>
+      <c r="D86" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" s="17" t="s">
+      <c r="A87" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" s="17"/>
+      <c r="D87" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="A88" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D88" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E88" s="17"/>
+      <c r="D88" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E88" s="14"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="17" t="s">
+      <c r="A89" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E89" s="17"/>
+      <c r="D89" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="17" t="s">
+      <c r="A90" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E90" s="17"/>
+      <c r="C90" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="14"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="17" t="s">
+      <c r="A91" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E91" s="17"/>
+      <c r="C91" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="14"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E92" s="17"/>
+      <c r="A92" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="14"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E93" s="17"/>
+      <c r="A93" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="14"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="17" t="s">
+      <c r="A94" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E94" s="22" t="s">
+      <c r="C94" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E94" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" s="17" t="s">
+      <c r="A95" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="17" t="s">
+      <c r="C95" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E96" s="22" t="s">
+      <c r="A96" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E96" s="19" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E97" s="22" t="s">
+      <c r="A97" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="19" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3896,7 +3903,7 @@
       <c r="C3" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3907,7 +3914,7 @@
       <c r="C4" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="18" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4010,11 +4017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,1432 +4032,1438 @@
     <col min="5" max="5" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="B5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="C6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="C7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="F7" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="26" t="s">
+      <c r="D11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="F11" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="F15" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="27" t="s">
+      <c r="B17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="C18" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="27" t="s">
+      <c r="C19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="F19" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="27" t="s">
+      <c r="B20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="27" t="s">
+      <c r="B21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="28" t="s">
+      <c r="C23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="23" t="s">
         <v>174</v>
       </c>
       <c r="I23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="B24" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="23" t="s">
         <v>158</v>
       </c>
       <c r="I24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="27" t="s">
+      <c r="B25" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>168</v>
       </c>
       <c r="I25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27" t="s">
+      <c r="C26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>184</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="I26" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31" t="s">
+      <c r="B28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="27" t="s">
+      <c r="B29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="26" t="s">
+      <c r="D31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="27" t="s">
+      <c r="D32" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27" t="s">
+      <c r="D33" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26" t="s">
+      <c r="C34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="29" t="s">
+      <c r="C35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F36" s="26" t="s">
+      <c r="F36" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="B37" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="27" t="s">
+      <c r="C38" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="30" t="s">
+      <c r="C39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="33" t="s">
+      <c r="B40" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="27" t="s">
+      <c r="B41" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="26" t="s">
+      <c r="C42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="19" t="s">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="32" t="s">
+      <c r="C43" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="27" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="27" t="s">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="C46" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="27" t="s">
+      <c r="C47" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="27" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="27" t="s">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="27" t="s">
+      <c r="D50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="27" t="s">
+      <c r="D51" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="17" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E52" s="27" t="s">
+      <c r="D52" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="17" t="s">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" s="19" t="s">
+      <c r="A54" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="26" t="s">
+      <c r="C54" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="19" t="s">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26" t="s">
+      <c r="C55" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="27" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="27" t="s">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="27" t="s">
+      <c r="C58" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="19" t="s">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" s="27" t="s">
+      <c r="C59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="27" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="27" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="19" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="27" t="s">
+      <c r="C62" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="19" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="27" t="s">
+      <c r="C63" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="27" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="27" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="19" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="27" t="s">
+      <c r="C66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="19" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="27" t="s">
+      <c r="C67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="27" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="27" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="19" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="27" t="s">
+      <c r="D70" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="19" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E71" s="27" t="s">
+      <c r="D71" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="17" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E72" s="27" t="s">
+      <c r="D72" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="17" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D73" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="19" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" s="27" t="s">
+      <c r="C74" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="19" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" s="27" t="s">
+      <c r="C75" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="27" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" s="27" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="19" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="27" t="s">
+      <c r="C78" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="19" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="27" t="s">
+      <c r="C79" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E80" s="27" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" s="24" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" s="27" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="21"/>
+      <c r="B82" s="18"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="21"/>
+      <c r="B83" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F81">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="blood confirmed - 2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="available - 0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
